--- a/taller 8 de dic.xlsx
+++ b/taller 8 de dic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\ESPOL\2S - 2021\Operaciones unitarias\Destilación batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D629DF-3C6F-4B95-8FC5-745C6A22C6D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764BD502-14F7-404F-A046-CBD23C99D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E54C91A0-F294-4737-B404-9F3FC0AD596D}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>xF</t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>función objetivo</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -4889,10 +4892,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45B9D500-EA06-4354-AE45-213512466CC2}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4900,148 +4903,202 @@
     <col min="1" max="16384" width="11.5546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>13.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" s="4">
+        <v>96.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>4</v>
       </c>
       <c r="B4" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="4">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>6</v>
       </c>
       <c r="B5" s="4">
         <v>30.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="4">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>8</v>
       </c>
       <c r="B6" s="4">
         <v>36.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>10</v>
       </c>
       <c r="B7" s="4">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="4">
+        <v>87.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <v>51.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" s="4">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>20</v>
       </c>
       <c r="B9" s="4">
         <v>57.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" s="4">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>30</v>
       </c>
       <c r="B10" s="4">
         <v>66.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>40</v>
       </c>
       <c r="B11" s="4">
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" s="4">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>50</v>
       </c>
       <c r="B12" s="4">
         <v>77.900000000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" s="4">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>60</v>
       </c>
       <c r="B13" s="4">
         <v>82.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" s="4">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>70</v>
       </c>
       <c r="B14" s="4">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" s="4">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>80</v>
       </c>
       <c r="B15" s="4">
         <v>91.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" s="4">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>90</v>
       </c>
       <c r="B16" s="4">
         <v>95.8</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>95</v>
       </c>
       <c r="B17" s="4">
         <v>97.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>100</v>
       </c>
       <c r="B18" s="4">
         <v>100</v>
+      </c>
+      <c r="C18" s="4">
+        <v>64.5</v>
       </c>
     </row>
   </sheetData>

--- a/taller 8 de dic.xlsx
+++ b/taller 8 de dic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\ESPOL\2S - 2021\Operaciones unitarias\Destilación batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764BD502-14F7-404F-A046-CBD23C99D5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338AA062-80BC-4688-A35A-3753065F0D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{E54C91A0-F294-4737-B404-9F3FC0AD596D}"/>
   </bookViews>
@@ -4895,7 +4895,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4927,10 +4927,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="B3" s="4">
-        <v>13.4</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="C3" s="4">
         <v>96.4</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>4</v>
+        <v>0.04</v>
       </c>
       <c r="B4" s="4">
-        <v>23</v>
+        <v>0.23</v>
       </c>
       <c r="C4" s="4">
         <v>93.5</v>
@@ -4949,10 +4949,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="B5" s="4">
-        <v>30.4</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="C5" s="4">
         <v>91.2</v>
@@ -4960,10 +4960,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="B6" s="4">
-        <v>36.5</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="C6" s="4">
         <v>89.3</v>
@@ -4971,10 +4971,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="B7" s="4">
-        <v>41.8</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="C7" s="4">
         <v>87.7</v>
@@ -4982,10 +4982,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>15</v>
+        <v>0.15</v>
       </c>
       <c r="B8" s="4">
-        <v>51.7</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="C8" s="4">
         <v>84.4</v>
@@ -4993,10 +4993,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="B9" s="4">
-        <v>57.9</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="C9" s="4">
         <v>81.7</v>
@@ -5004,10 +5004,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="B10" s="4">
-        <v>66.5</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="C10" s="4">
         <v>78</v>
@@ -5015,10 +5015,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="B11" s="4">
-        <v>72.900000000000006</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="C11" s="4">
         <v>75.3</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="B12" s="4">
-        <v>77.900000000000006</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="C12" s="4">
         <v>73.099999999999994</v>
@@ -5037,10 +5037,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="B13" s="4">
-        <v>82.5</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C13" s="4">
         <v>71.2</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="B14" s="4">
-        <v>87</v>
+        <v>0.87</v>
       </c>
       <c r="C14" s="4">
         <v>69.3</v>
@@ -5059,10 +5059,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="B15" s="4">
-        <v>91.5</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="C15" s="4">
         <v>67.599999999999994</v>
@@ -5070,10 +5070,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="B16" s="4">
-        <v>95.8</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="C16" s="4">
         <v>66</v>
@@ -5081,10 +5081,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
-        <v>95</v>
+        <v>0.95</v>
       </c>
       <c r="B17" s="4">
-        <v>97.9</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="C17" s="4">
         <v>65</v>
@@ -5092,10 +5092,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B18" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C18" s="4">
         <v>64.5</v>
